--- a/biology/Zoologie/Aphaenogaster_senilis/Aphaenogaster_senilis.xlsx
+++ b/biology/Zoologie/Aphaenogaster_senilis/Aphaenogaster_senilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphaenogaster senilis est une espèce de fourmis de la sous-famille des Myrmicinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La reine mesure environ 8,5 mm et les ouvrières 7 mm. Les ailes des individus sexués (mâles et princesses) sont atrophiées.
 </t>
@@ -542,7 +556,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de vol nuptial pour la création d'une nouvelle colonie, celle-ci étant fondée par bouturage. Elle pratique un bouturage particulier. L'ancienne gyne (reine) quitte la colonie avec 85 % des fourmis et laisse derrière elle 15 % de ses filles. Restées seules elles se referons une nouvelle reine et pondront des œufs de mâles. Ces fourmis sont en repos hivernal à la mauvaise saison mais gardent un minimum d'activité si le temps n'est pas mauvais. Leur opportunisme les pousse à saisir toute forme d'alimentation, ce qui leur permet de sortir sans attendre des sources d'approvisionnement spécifiques. Elles possèdent comme d'autres espèces un jabot social réduit.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On les retrouve sur le pourtour méditerranéen, et jusqu'aux îles Canaries. En France elles sont connues des Pyrénées-Orientales et de la Camargue.
 Ces fourmis peuvent vivre avec une faible hygrométrie dans des milieux perturbés.
@@ -605,9 +623,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 avril 2018)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 avril 2018) :
 Aphaenogaster senilis disjuncta Santschi, 1933
 Aphaenogaster senilis grata Santschi, 1933
 Aphaenogaster senilis senilis Mayr, 1853</t>
